--- a/dataset/Independent_test.xlsx
+++ b/dataset/Independent_test.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\MetalTrans\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\MetalTrans\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD7B98E-0863-4907-8E0C-4CDBE833E7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3996D696-68D5-45D2-A633-1D59C73BB3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="1357" windowWidth="19185" windowHeight="10583" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5873" yWindow="3247" windowWidth="19440" windowHeight="12413" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="497">
   <si>
     <t>Uniprot ID</t>
   </si>
@@ -1178,13 +1179,364 @@
   <si>
     <t>Predict_Label</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>protein_variant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unexist_uniprot_id</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>H204R</t>
+  </si>
+  <si>
+    <t>R222X</t>
+  </si>
+  <si>
+    <t>C1361Y</t>
+  </si>
+  <si>
+    <t>L1174X</t>
+  </si>
+  <si>
+    <t>G118V</t>
+  </si>
+  <si>
+    <t>G379C</t>
+  </si>
+  <si>
+    <t>R241L</t>
+  </si>
+  <si>
+    <t>C360Y</t>
+  </si>
+  <si>
+    <t>V126M</t>
+  </si>
+  <si>
+    <t>Q302X</t>
+  </si>
+  <si>
+    <t>Y80F</t>
+  </si>
+  <si>
+    <t>M288R</t>
+  </si>
+  <si>
+    <t>I669T</t>
+  </si>
+  <si>
+    <t>R198W</t>
+  </si>
+  <si>
+    <t>R122Q</t>
+  </si>
+  <si>
+    <t>C58G</t>
+  </si>
+  <si>
+    <t>H33Q</t>
+  </si>
+  <si>
+    <t>P70A</t>
+  </si>
+  <si>
+    <t>Y171C</t>
+  </si>
+  <si>
+    <t>C75F</t>
+  </si>
+  <si>
+    <t>C64W</t>
+  </si>
+  <si>
+    <t>C39F</t>
+  </si>
+  <si>
+    <t>C39Y</t>
+  </si>
+  <si>
+    <t>C39R</t>
+  </si>
+  <si>
+    <t>C24R</t>
+  </si>
+  <si>
+    <t>E87A</t>
+  </si>
+  <si>
+    <t>V301M</t>
+  </si>
+  <si>
+    <t>R67C</t>
+  </si>
+  <si>
+    <t>C108Y</t>
+  </si>
+  <si>
+    <t>M1798I</t>
+  </si>
+  <si>
+    <t>G264W</t>
+  </si>
+  <si>
+    <t>P106L</t>
+  </si>
+  <si>
+    <t>H136R</t>
+  </si>
+  <si>
+    <t>C396R</t>
+  </si>
+  <si>
+    <t>C200S</t>
+  </si>
+  <si>
+    <t>T172I</t>
+  </si>
+  <si>
+    <t>D326G</t>
+  </si>
+  <si>
+    <t>C200F</t>
+  </si>
+  <si>
+    <t>C155G</t>
+  </si>
+  <si>
+    <t>G169R</t>
+  </si>
+  <si>
+    <t>H144P</t>
+  </si>
+  <si>
+    <t>F151S</t>
+  </si>
+  <si>
+    <t>Y140C</t>
+  </si>
+  <si>
+    <t>Y236C</t>
+  </si>
+  <si>
+    <t>C583Y</t>
+  </si>
+  <si>
+    <t>W222S</t>
+  </si>
+  <si>
+    <t>K45E</t>
+  </si>
+  <si>
+    <t>R175H</t>
+  </si>
+  <si>
+    <t>C562R</t>
+  </si>
+  <si>
+    <t>H178D</t>
+  </si>
+  <si>
+    <t>R80Q</t>
+  </si>
+  <si>
+    <t>R181H</t>
+  </si>
+  <si>
+    <t>H178P</t>
+  </si>
+  <si>
+    <t>M237K</t>
+  </si>
+  <si>
+    <t>M400R</t>
+  </si>
+  <si>
+    <t>R174G</t>
+  </si>
+  <si>
+    <t>C238S</t>
+  </si>
+  <si>
+    <t>I569F</t>
+  </si>
+  <si>
+    <t>R175L</t>
+  </si>
+  <si>
+    <t>A59T</t>
+  </si>
+  <si>
+    <t>H88N</t>
+  </si>
+  <si>
+    <t>H88R</t>
+  </si>
+  <si>
+    <t>D86Y</t>
+  </si>
+  <si>
+    <t>H93D</t>
+  </si>
+  <si>
+    <t>H93P</t>
+  </si>
+  <si>
+    <t>E91K</t>
+  </si>
+  <si>
+    <t>R885C</t>
+  </si>
+  <si>
+    <t>A46T</t>
+  </si>
+  <si>
+    <t>P490L</t>
+  </si>
+  <si>
+    <t>D60Y</t>
+  </si>
+  <si>
+    <t>V1804D</t>
+  </si>
+  <si>
+    <t>N386D</t>
+  </si>
+  <si>
+    <t>V101L</t>
+  </si>
+  <si>
+    <t>T1219I</t>
+  </si>
+  <si>
+    <t>H978R</t>
+  </si>
+  <si>
+    <t>D25E</t>
+  </si>
+  <si>
+    <t>I294V</t>
+  </si>
+  <si>
+    <t>M71V</t>
+  </si>
+  <si>
+    <t>A136T</t>
+  </si>
+  <si>
+    <t>M164T</t>
+  </si>
+  <si>
+    <t>V97F</t>
+  </si>
+  <si>
+    <t>N927K</t>
+  </si>
+  <si>
+    <t>R127P</t>
+  </si>
+  <si>
+    <t>M68I</t>
+  </si>
+  <si>
+    <t>E73Q</t>
+  </si>
+  <si>
+    <t>I191V</t>
+  </si>
+  <si>
+    <t>A28V</t>
+  </si>
+  <si>
+    <t>F226L</t>
+  </si>
+  <si>
+    <t>F39L</t>
+  </si>
+  <si>
+    <t>T103A</t>
+  </si>
+  <si>
+    <t>N438Y</t>
+  </si>
+  <si>
+    <t>K392N</t>
+  </si>
+  <si>
+    <t>K190N</t>
+  </si>
+  <si>
+    <t>M658I</t>
+  </si>
+  <si>
+    <t>R777Q</t>
+  </si>
+  <si>
+    <t>V495L</t>
+  </si>
+  <si>
+    <t>D488N</t>
+  </si>
+  <si>
+    <t>V98L</t>
+  </si>
+  <si>
+    <t>K91T</t>
+  </si>
+  <si>
+    <t>G436R</t>
+  </si>
+  <si>
+    <t>N868H</t>
+  </si>
+  <si>
+    <t>D210Y</t>
+  </si>
+  <si>
+    <t>M392I</t>
+  </si>
+  <si>
+    <t>N288D</t>
+  </si>
+  <si>
+    <t>N396S</t>
+  </si>
+  <si>
+    <t>P44R</t>
+  </si>
+  <si>
+    <t>A268V</t>
+  </si>
+  <si>
+    <t>N225S</t>
+  </si>
+  <si>
+    <t>A263S</t>
+  </si>
+  <si>
+    <t>M369V</t>
+  </si>
+  <si>
+    <t>E20G</t>
+  </si>
+  <si>
+    <t>I111L</t>
+  </si>
+  <si>
+    <t>AlphaMissense_Value</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1267,6 +1619,52 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1303,7 +1701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1368,6 +1766,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5059,10 +5473,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2236BF34-B1CB-4704-BAFE-32A8484B1653}">
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -5075,14 +5489,11 @@
     <col min="6" max="6" width="6.06640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.06640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.46484375" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.46484375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="15.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.3984375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5107,17 +5518,14 @@
       <c r="H1" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
@@ -5143,24 +5551,13 @@
         <v>2.79E-7</v>
       </c>
       <c r="I2" s="18">
-        <f t="shared" ref="I2:I33" si="0">IF(H2&gt;0.46,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="18">
         <v>0.39142606000000002</v>
       </c>
-      <c r="K2" s="18">
-        <f>IF(J2&gt;0.22,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="L2" s="19">
+      <c r="J2" s="19">
         <v>0.91225171089172363</v>
       </c>
-      <c r="M2" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>12</v>
       </c>
@@ -5186,24 +5583,13 @@
         <v>4.3900000000000003E-5</v>
       </c>
       <c r="I3" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J3" s="18">
         <v>0.65012144999999999</v>
       </c>
-      <c r="K3" s="18">
-        <f t="shared" ref="K3:K66" si="1">IF(J3&gt;0.22,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="L3" s="19">
+      <c r="J3" s="19">
         <v>0.80636167526245117</v>
       </c>
-      <c r="M3" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -5229,24 +5615,13 @@
         <v>9.6399999999999999E-5</v>
       </c>
       <c r="I4" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
         <v>0.62989444000000006</v>
       </c>
-      <c r="K4" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L4">
+      <c r="J4">
         <v>0.41870594024658198</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>24</v>
       </c>
@@ -5272,24 +5647,13 @@
         <v>3.1114000000000001E-4</v>
       </c>
       <c r="I5" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="18">
         <v>0.92980209999999996</v>
       </c>
-      <c r="K5" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L5" s="19">
+      <c r="J5" s="19">
         <v>0.97013026475906372</v>
       </c>
-      <c r="M5" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>29</v>
       </c>
@@ -5315,24 +5679,13 @@
         <v>6.2658799999999997E-4</v>
       </c>
       <c r="I6" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="15">
         <v>0.19786121000000001</v>
       </c>
-      <c r="K6" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="10">
+      <c r="J6" s="10">
         <v>0.74933195114135742</v>
       </c>
-      <c r="M6" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>34</v>
       </c>
@@ -5358,24 +5711,13 @@
         <v>1.0229779999999999E-3</v>
       </c>
       <c r="I7" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="15">
         <v>0.17976428999999999</v>
       </c>
-      <c r="K7" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="10">
+      <c r="J7" s="10">
         <v>0.70826780796051025</v>
       </c>
-      <c r="M7" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>39</v>
       </c>
@@ -5401,24 +5743,13 @@
         <v>3.6461969999999999E-3</v>
       </c>
       <c r="I8" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="15">
         <v>0.17940390000000001</v>
       </c>
-      <c r="K8" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="10">
+      <c r="J8" s="10">
         <v>0.91472899913787842</v>
       </c>
-      <c r="M8" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>45</v>
       </c>
@@ -5444,24 +5775,13 @@
         <v>8.5772790000000002E-3</v>
       </c>
       <c r="I9" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="18">
         <v>0.94442179999999998</v>
       </c>
-      <c r="K9" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L9" s="19">
+      <c r="J9" s="19">
         <v>0.9128870964050293</v>
       </c>
-      <c r="M9" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>50</v>
       </c>
@@ -5487,24 +5807,13 @@
         <v>0.16111653000000001</v>
       </c>
       <c r="I10" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="18">
         <v>0.42931386999999999</v>
       </c>
-      <c r="K10" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L10" s="19">
+      <c r="J10" s="19">
         <v>0.85126405954360962</v>
       </c>
-      <c r="M10" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>45</v>
       </c>
@@ -5530,24 +5839,13 @@
         <v>0.26052927999999997</v>
       </c>
       <c r="I11" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="18">
         <v>0.77743214000000005</v>
       </c>
-      <c r="K11" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L11" s="19">
+      <c r="J11" s="19">
         <v>0.90144205093383789</v>
       </c>
-      <c r="M11" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>57</v>
       </c>
@@ -5573,24 +5871,13 @@
         <v>0.37176925</v>
       </c>
       <c r="I12" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="18">
         <v>0.70272325999999996</v>
       </c>
-      <c r="K12" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L12" s="19">
+      <c r="J12" s="19">
         <v>0.90335094928741455</v>
       </c>
-      <c r="M12" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>61</v>
       </c>
@@ -5616,24 +5903,13 @@
         <v>0.45598430000000001</v>
       </c>
       <c r="I13" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="18">
         <v>0.27820539999999999</v>
       </c>
-      <c r="K13" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L13" s="19">
+      <c r="J13" s="19">
         <v>0.84011626243591309</v>
       </c>
-      <c r="M13" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>67</v>
       </c>
@@ -5659,24 +5935,13 @@
         <v>0.52882079999999998</v>
       </c>
       <c r="I14" s="24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J14" s="24">
         <v>0.14348607999999999</v>
       </c>
-      <c r="K14" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="25">
+      <c r="J14" s="25">
         <v>0.80576038360595703</v>
       </c>
-      <c r="M14" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>71</v>
       </c>
@@ -5702,24 +5967,13 @@
         <v>0.54970026000000005</v>
       </c>
       <c r="I15" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J15" s="7">
         <v>0.59959099999999999</v>
       </c>
-      <c r="K15" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L15">
+      <c r="J15">
         <v>0.88282042741775513</v>
       </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>75</v>
       </c>
@@ -5745,24 +5999,13 @@
         <v>0.88930240000000005</v>
       </c>
       <c r="I16" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J16" s="7">
         <v>0.51840450000000005</v>
       </c>
-      <c r="K16" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L16">
+      <c r="J16">
         <v>0.74318450689315796</v>
       </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>75</v>
       </c>
@@ -5788,24 +6031,13 @@
         <v>0.88930494000000004</v>
       </c>
       <c r="I17" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J17" s="7">
         <v>0.76049820000000001</v>
       </c>
-      <c r="K17" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L17">
+      <c r="J17">
         <v>0.96021056175231934</v>
       </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>75</v>
       </c>
@@ -5831,24 +6063,13 @@
         <v>0.88930505999999998</v>
       </c>
       <c r="I18" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J18" s="7">
         <v>0.76049820000000001</v>
       </c>
-      <c r="K18" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L18">
+      <c r="J18">
         <v>0.87710487842559814</v>
       </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>75</v>
       </c>
@@ -5874,24 +6095,13 @@
         <v>0.88930505999999998</v>
       </c>
       <c r="I19" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J19" s="7">
         <v>0.76049820000000001</v>
       </c>
-      <c r="K19" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L19">
+      <c r="J19">
         <v>0.97639083862304688</v>
       </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>75</v>
       </c>
@@ -5917,24 +6127,13 @@
         <v>0.88930659999999995</v>
       </c>
       <c r="I20" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J20" s="7">
         <v>0.82644949999999995</v>
       </c>
-      <c r="K20" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L20">
+      <c r="J20">
         <v>0.88347971439361572</v>
       </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>82</v>
       </c>
@@ -5960,24 +6159,13 @@
         <v>0.98737353000000005</v>
       </c>
       <c r="I21" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J21" s="7">
         <v>0.43147790000000003</v>
       </c>
-      <c r="K21" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L21">
+      <c r="J21">
         <v>0.90564864873886108</v>
       </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>87</v>
       </c>
@@ -6003,24 +6191,13 @@
         <v>0.99999415999999997</v>
       </c>
       <c r="I22" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J22" s="7">
         <v>0.88224150000000001</v>
       </c>
-      <c r="K22" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L22">
+      <c r="J22">
         <v>0.93272024393081665</v>
       </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>91</v>
       </c>
@@ -6046,24 +6223,13 @@
         <v>0.99999607000000001</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J23" s="7">
         <v>0.76994496999999995</v>
       </c>
-      <c r="K23" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L23">
+      <c r="J23">
         <v>0.93635982275009155</v>
       </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
         <v>91</v>
       </c>
@@ -6089,24 +6255,13 @@
         <v>0.99999607000000001</v>
       </c>
       <c r="I24" s="29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J24" s="29">
         <v>0.76994496999999995</v>
       </c>
-      <c r="K24" s="29">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L24" s="9">
+      <c r="J24" s="9">
         <v>0.52497494220733643</v>
       </c>
-      <c r="M24" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>95</v>
       </c>
@@ -6132,24 +6287,13 @@
         <v>0.99999629999999995</v>
       </c>
       <c r="I25" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J25" s="7">
         <v>0.97500220000000004</v>
       </c>
-      <c r="K25" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L25">
+      <c r="J25">
         <v>0.82991063594818115</v>
       </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>99</v>
       </c>
@@ -6175,24 +6319,13 @@
         <v>0.99999773999999997</v>
       </c>
       <c r="I26" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J26" s="7">
         <v>0.22857031</v>
       </c>
-      <c r="K26" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L26">
+      <c r="J26">
         <v>0.7546849250793457</v>
       </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>103</v>
       </c>
@@ -6218,24 +6351,13 @@
         <v>0.99999870000000002</v>
       </c>
       <c r="I27" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J27" s="7">
         <v>0.56674296000000002</v>
       </c>
-      <c r="K27" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L27">
+      <c r="J27">
         <v>0.97724264860153198</v>
       </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>107</v>
       </c>
@@ -6261,24 +6383,13 @@
         <v>0.99999879999999997</v>
       </c>
       <c r="I28" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J28" s="7">
         <v>0.28508016000000003</v>
       </c>
-      <c r="K28" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L28">
+      <c r="J28">
         <v>0.70871829986572266</v>
       </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>111</v>
       </c>
@@ -6304,24 +6415,13 @@
         <v>0.66645500000000002</v>
       </c>
       <c r="I29" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J29" s="7">
         <v>0.75595440000000003</v>
       </c>
-      <c r="K29" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L29">
+      <c r="J29">
         <v>0.74843597412109375</v>
       </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>115</v>
       </c>
@@ -6347,24 +6447,13 @@
         <v>0.99999939999999998</v>
       </c>
       <c r="I30" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J30" s="7">
         <v>0.96937110000000004</v>
       </c>
-      <c r="K30" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L30">
+      <c r="J30">
         <v>0.98806387186050415</v>
       </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>119</v>
       </c>
@@ -6390,24 +6479,13 @@
         <v>0.99999963999999997</v>
       </c>
       <c r="I31" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J31" s="7">
         <v>0.91048430000000002</v>
       </c>
-      <c r="K31" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L31">
+      <c r="J31">
         <v>0.82103681564331055</v>
       </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>119</v>
       </c>
@@ -6433,24 +6511,13 @@
         <v>0.99999963999999997</v>
       </c>
       <c r="I32" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J32" s="7">
         <v>0.70201829999999998</v>
       </c>
-      <c r="K32" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L32">
+      <c r="J32">
         <v>0.93766415119171143</v>
       </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>125</v>
       </c>
@@ -6476,24 +6543,13 @@
         <v>0.99999963999999997</v>
       </c>
       <c r="I33" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J33" s="7">
         <v>0.72009546000000002</v>
       </c>
-      <c r="K33" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L33">
+      <c r="J33">
         <v>0.79703068733215332</v>
       </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>119</v>
       </c>
@@ -6519,24 +6575,13 @@
         <v>0.99999963999999997</v>
       </c>
       <c r="I34" s="7">
-        <f t="shared" ref="I34:I65" si="2">IF(H34&gt;0.46,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="J34" s="7">
         <v>0.91048430000000002</v>
       </c>
-      <c r="K34" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L34">
+      <c r="J34">
         <v>0.9106934666633606</v>
       </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>130</v>
       </c>
@@ -6562,24 +6607,13 @@
         <v>0.99999976000000002</v>
       </c>
       <c r="I35" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J35" s="7">
         <v>0.56020665000000003</v>
       </c>
-      <c r="K35" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L35">
+      <c r="J35">
         <v>0.85072416067123413</v>
       </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>134</v>
       </c>
@@ -6605,24 +6639,13 @@
         <v>0.99999976000000002</v>
       </c>
       <c r="I36" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J36" s="7">
         <v>0.73297756999999997</v>
       </c>
-      <c r="K36" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L36">
+      <c r="J36">
         <v>0.95981091260910034</v>
       </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>138</v>
       </c>
@@ -6648,24 +6671,13 @@
         <v>0.99999976000000002</v>
       </c>
       <c r="I37" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J37" s="7">
         <v>0.50600230000000002</v>
       </c>
-      <c r="K37" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L37">
+      <c r="J37">
         <v>0.94255739450454712</v>
       </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="22" t="s">
         <v>134</v>
       </c>
@@ -6691,24 +6703,13 @@
         <v>0.99999976000000002</v>
       </c>
       <c r="I38" s="24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J38" s="24">
         <v>0.16754435000000001</v>
       </c>
-      <c r="K38" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="25">
+      <c r="J38" s="25">
         <v>0.96022891998291016</v>
       </c>
-      <c r="M38" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>143</v>
       </c>
@@ -6734,24 +6735,13 @@
         <v>0.99999990000000005</v>
       </c>
       <c r="I39" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J39" s="7">
         <v>0.87915527999999998</v>
       </c>
-      <c r="K39" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L39">
+      <c r="J39">
         <v>0.91207259893417358</v>
       </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>147</v>
       </c>
@@ -6777,24 +6767,13 @@
         <v>0.99999990000000005</v>
       </c>
       <c r="I40" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J40" s="7">
         <v>0.96853710000000004</v>
       </c>
-      <c r="K40" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L40">
+      <c r="J40">
         <v>0.95810568332672119</v>
       </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>151</v>
       </c>
@@ -6820,24 +6799,13 @@
         <v>1</v>
       </c>
       <c r="I41" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J41" s="7">
         <v>0.83724259999999995</v>
       </c>
-      <c r="K41" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L41">
+      <c r="J41">
         <v>0.94507056474685669</v>
       </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>155</v>
       </c>
@@ -6863,24 +6831,13 @@
         <v>1</v>
       </c>
       <c r="I42" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J42" s="7">
         <v>0.90340960000000003</v>
       </c>
-      <c r="K42" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L42">
+      <c r="J42">
         <v>0.95325499773025513</v>
       </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>119</v>
       </c>
@@ -6906,24 +6863,13 @@
         <v>1</v>
       </c>
       <c r="I43" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J43" s="7">
         <v>0.88378299999999999</v>
       </c>
-      <c r="K43" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L43">
+      <c r="J43">
         <v>0.8585745096206665</v>
       </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>159</v>
       </c>
@@ -6949,24 +6895,13 @@
         <v>1</v>
       </c>
       <c r="I44" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J44" s="7">
         <v>0.97680829999999996</v>
       </c>
-      <c r="K44" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L44">
+      <c r="J44">
         <v>0.94365012645721436</v>
       </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>164</v>
       </c>
@@ -6992,24 +6927,13 @@
         <v>1</v>
       </c>
       <c r="I45" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J45" s="7">
         <v>0.55650496000000005</v>
       </c>
-      <c r="K45" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L45">
+      <c r="J45">
         <v>0.91476535797119141</v>
       </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>164</v>
       </c>
@@ -7035,24 +6959,13 @@
         <v>1</v>
       </c>
       <c r="I46" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J46" s="7">
         <v>0.7778465</v>
       </c>
-      <c r="K46" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L46">
+      <c r="J46">
         <v>0.80888622999191284</v>
       </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>151</v>
       </c>
@@ -7078,24 +6991,13 @@
         <v>1</v>
       </c>
       <c r="I47" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J47" s="7">
         <v>0.77094980000000002</v>
       </c>
-      <c r="K47" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L47">
+      <c r="J47">
         <v>0.96046775579452515</v>
       </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>155</v>
       </c>
@@ -7121,24 +7023,13 @@
         <v>1</v>
       </c>
       <c r="I48" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J48" s="7">
         <v>0.43860608000000001</v>
       </c>
-      <c r="K48" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L48">
+      <c r="J48">
         <v>0.90764778852462769</v>
       </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>119</v>
       </c>
@@ -7164,24 +7055,13 @@
         <v>1</v>
       </c>
       <c r="I49" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J49" s="7">
         <v>0.88378299999999999</v>
       </c>
-      <c r="K49" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L49">
+      <c r="J49">
         <v>0.79454076290130615</v>
       </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>151</v>
       </c>
@@ -7207,24 +7087,13 @@
         <v>1</v>
       </c>
       <c r="I50" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J50" s="7">
         <v>0.87327783999999997</v>
       </c>
-      <c r="K50" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L50">
+      <c r="J50">
         <v>0.94201755523681641</v>
       </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>172</v>
       </c>
@@ -7250,24 +7119,13 @@
         <v>1</v>
       </c>
       <c r="I51" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J51" s="7">
         <v>0.76951080000000005</v>
       </c>
-      <c r="K51" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L51">
+      <c r="J51">
         <v>0.83884388208389282</v>
       </c>
-      <c r="M51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>159</v>
       </c>
@@ -7293,24 +7151,13 @@
         <v>1</v>
       </c>
       <c r="I52" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J52" s="7">
         <v>0.84968054000000004</v>
       </c>
-      <c r="K52" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L52">
+      <c r="J52">
         <v>0.94649702310562134</v>
       </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>151</v>
       </c>
@@ -7336,24 +7183,13 @@
         <v>1</v>
       </c>
       <c r="I53" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J53" s="7">
         <v>0.66579350000000004</v>
       </c>
-      <c r="K53" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L53">
+      <c r="J53">
         <v>0.96077024936676025</v>
       </c>
-      <c r="M53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>151</v>
       </c>
@@ -7379,24 +7215,13 @@
         <v>1</v>
       </c>
       <c r="I54" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J54" s="7">
         <v>0.87327783999999997</v>
       </c>
-      <c r="K54" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L54">
+      <c r="J54">
         <v>0.95498651266098022</v>
       </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>151</v>
       </c>
@@ -7422,24 +7247,13 @@
         <v>1</v>
       </c>
       <c r="I55" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J55" s="7">
         <v>0.91454469999999999</v>
       </c>
-      <c r="K55" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L55">
+      <c r="J55">
         <v>0.8404039740562439</v>
       </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>115</v>
       </c>
@@ -7465,24 +7279,13 @@
         <v>1</v>
       </c>
       <c r="I56" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J56" s="7">
         <v>0.88573252999999996</v>
       </c>
-      <c r="K56" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L56">
+      <c r="J56">
         <v>0.73557251691818237</v>
       </c>
-      <c r="M56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>151</v>
       </c>
@@ -7508,24 +7311,13 @@
         <v>1</v>
       </c>
       <c r="I57" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J57" s="7">
         <v>0.73003439999999997</v>
       </c>
-      <c r="K57" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L57">
+      <c r="J57">
         <v>0.884651780128479</v>
       </c>
-      <c r="M57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>151</v>
       </c>
@@ -7551,24 +7343,13 @@
         <v>1</v>
       </c>
       <c r="I58" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J58" s="7">
         <v>0.89685017</v>
       </c>
-      <c r="K58" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L58">
+      <c r="J58">
         <v>0.91340923309326172</v>
       </c>
-      <c r="M58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>182</v>
       </c>
@@ -7594,24 +7375,13 @@
         <v>1</v>
       </c>
       <c r="I59" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J59" s="7">
         <v>0.73323344999999995</v>
       </c>
-      <c r="K59" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L59">
+      <c r="J59">
         <v>0.91015112400054932</v>
       </c>
-      <c r="M59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>151</v>
       </c>
@@ -7637,24 +7407,13 @@
         <v>1</v>
       </c>
       <c r="I60" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J60" s="7">
         <v>0.77094980000000002</v>
       </c>
-      <c r="K60" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L60">
+      <c r="J60">
         <v>0.95026618242263794</v>
       </c>
-      <c r="M60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>186</v>
       </c>
@@ -7680,24 +7439,13 @@
         <v>1.5000000000000001E-12</v>
       </c>
       <c r="I61" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J61" s="7">
         <v>0.58921769999999996</v>
       </c>
-      <c r="K61" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L61">
+      <c r="J61">
         <v>0.79228788614273071</v>
       </c>
-      <c r="M61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>190</v>
       </c>
@@ -7723,24 +7471,13 @@
         <v>3.6660399999999999E-10</v>
       </c>
       <c r="I62" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J62" s="7">
         <v>4.9487002000000002E-2</v>
       </c>
-      <c r="K62" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L62">
+      <c r="J62">
         <v>9.8742969334125519E-2</v>
       </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>190</v>
       </c>
@@ -7766,24 +7503,13 @@
         <v>3.6660399999999999E-10</v>
       </c>
       <c r="I63" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J63" s="7">
         <v>4.9487002000000002E-2</v>
       </c>
-      <c r="K63" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L63">
+      <c r="J63">
         <v>0.111125685274601</v>
       </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>190</v>
       </c>
@@ -7809,24 +7535,13 @@
         <v>3.6700000000000003E-10</v>
       </c>
       <c r="I64" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="7">
         <v>5.9114890000000003E-2</v>
       </c>
-      <c r="K64" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L64">
+      <c r="J64">
         <v>0.36755210161209112</v>
       </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>196</v>
       </c>
@@ -7852,24 +7567,13 @@
         <v>4.0168399999999999E-10</v>
       </c>
       <c r="I65" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J65" s="7">
         <v>6.476353E-2</v>
       </c>
-      <c r="K65" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L65">
+      <c r="J65">
         <v>0.11051569133996959</v>
       </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>196</v>
       </c>
@@ -7895,24 +7599,13 @@
         <v>4.0169599999999998E-10</v>
       </c>
       <c r="I66" s="7">
-        <f t="shared" ref="I66:I97" si="3">IF(H66&gt;0.46,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J66" s="7">
         <v>6.476353E-2</v>
       </c>
-      <c r="K66" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L66">
+      <c r="J66">
         <v>0.1116260662674904</v>
       </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>196</v>
       </c>
@@ -7938,24 +7631,13 @@
         <v>4.0177200000000002E-10</v>
       </c>
       <c r="I67" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J67" s="7">
         <v>8.6410164999999997E-2</v>
       </c>
-      <c r="K67" s="7">
-        <f t="shared" ref="K67:K116" si="4">IF(J67&gt;0.22,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L67">
+      <c r="J67">
         <v>6.8563580513000488E-2</v>
       </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="22" t="s">
         <v>201</v>
       </c>
@@ -7981,24 +7663,13 @@
         <v>9.8897700000000007E-9</v>
       </c>
       <c r="I68" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="24">
         <v>0.48670196999999998</v>
       </c>
-      <c r="K68" s="24">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L68" s="25">
+      <c r="J68" s="25">
         <v>0.18577422201633451</v>
       </c>
-      <c r="M68" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>205</v>
       </c>
@@ -8024,24 +7695,13 @@
         <v>1.48142E-8</v>
       </c>
       <c r="I69" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="7">
         <v>8.1871940000000004E-2</v>
       </c>
-      <c r="K69" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L69">
+      <c r="J69">
         <v>0.12834389507770541</v>
       </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>209</v>
       </c>
@@ -8067,24 +7727,13 @@
         <v>1.4999999999999999E-8</v>
       </c>
       <c r="I70" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="7">
         <v>0.10506908600000001</v>
       </c>
-      <c r="K70" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L70">
+      <c r="J70">
         <v>0.1083183288574219</v>
       </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>213</v>
       </c>
@@ -8110,24 +7759,13 @@
         <v>2.3254800000000001E-8</v>
       </c>
       <c r="I71" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J71" s="7">
         <v>0.139794628</v>
       </c>
-      <c r="K71" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L71">
+      <c r="J71">
         <v>0.45377355813980103</v>
       </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>75</v>
       </c>
@@ -8153,24 +7791,13 @@
         <v>4.8105599999999999E-8</v>
       </c>
       <c r="I72" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J72" s="7">
         <v>7.3995060000000001E-2</v>
       </c>
-      <c r="K72" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L72">
+      <c r="J72">
         <v>6.9049939513206482E-2</v>
       </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>209</v>
       </c>
@@ -8196,24 +7823,13 @@
         <v>1.7044599999999999E-7</v>
       </c>
       <c r="I73" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J73" s="7">
         <v>0.16091916000000001</v>
       </c>
-      <c r="K73" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L73">
+      <c r="J73">
         <v>0.2968006432056427</v>
       </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>220</v>
       </c>
@@ -8239,24 +7855,13 @@
         <v>1.97E-7</v>
       </c>
       <c r="I74" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J74" s="7">
         <v>7.5663129999999995E-2</v>
       </c>
-      <c r="K74" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L74">
+      <c r="J74">
         <v>9.1613270342350006E-2</v>
       </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>224</v>
       </c>
@@ -8282,24 +7887,13 @@
         <v>6.0581899999999998E-7</v>
       </c>
       <c r="I75" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J75" s="7">
         <v>8.1937499999999996E-2</v>
       </c>
-      <c r="K75" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L75">
+      <c r="J75">
         <v>0.11288979649543759</v>
       </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>224</v>
       </c>
@@ -8325,24 +7919,13 @@
         <v>6.1716799999999996E-7</v>
       </c>
       <c r="I76" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J76" s="7">
         <v>0.19287198999999999</v>
       </c>
-      <c r="K76" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L76">
+      <c r="J76">
         <v>0.14389766752719879</v>
       </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>229</v>
       </c>
@@ -8368,24 +7951,13 @@
         <v>1.9400000000000001E-6</v>
       </c>
       <c r="I77" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="7">
         <v>6.0259449999999999E-2</v>
       </c>
-      <c r="K77" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L77">
+      <c r="J77">
         <v>0.55824971199035645</v>
       </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>233</v>
       </c>
@@ -8411,24 +7983,13 @@
         <v>2.21E-6</v>
       </c>
       <c r="I78" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="7">
         <v>2.6089706000000001E-2</v>
       </c>
-      <c r="K78" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L78">
+      <c r="J78">
         <v>9.6501223742961884E-2</v>
       </c>
-      <c r="M78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>237</v>
       </c>
@@ -8454,24 +8015,13 @@
         <v>8.3337600000000003E-6</v>
       </c>
       <c r="I79" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J79" s="7">
         <v>5.7206865000000003E-2</v>
       </c>
-      <c r="K79" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L79">
+      <c r="J79">
         <v>7.2664014995098114E-2</v>
       </c>
-      <c r="M79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>241</v>
       </c>
@@ -8497,24 +8047,13 @@
         <v>8.5199999999999997E-6</v>
       </c>
       <c r="I80" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J80" s="7">
         <v>0.15076949000000001</v>
       </c>
-      <c r="K80" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L80">
+      <c r="J80">
         <v>0.49738949537277222</v>
       </c>
-      <c r="M80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>244</v>
       </c>
@@ -8540,24 +8079,13 @@
         <v>9.3688799999999997E-6</v>
       </c>
       <c r="I81" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J81" s="7">
         <v>0.15726097999999999</v>
       </c>
-      <c r="K81" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L81">
+      <c r="J81">
         <v>0.1070399880409241</v>
       </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>248</v>
       </c>
@@ -8583,24 +8111,13 @@
         <v>1.5527499999999999E-4</v>
       </c>
       <c r="I82" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J82" s="7">
         <v>7.0911959999999996E-2</v>
       </c>
-      <c r="K82" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L82">
+      <c r="J82">
         <v>0.1207561641931534</v>
       </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>252</v>
       </c>
@@ -8626,24 +8143,13 @@
         <v>1.8100000000000001E-4</v>
       </c>
       <c r="I83" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J83" s="7">
         <v>6.1687690000000003E-2</v>
       </c>
-      <c r="K83" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L83">
+      <c r="J83">
         <v>7.2002939879894257E-2</v>
       </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="22" t="s">
         <v>256</v>
       </c>
@@ -8669,24 +8175,13 @@
         <v>5.1932300000000003E-4</v>
       </c>
       <c r="I84" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="24">
         <v>0.37816566000000001</v>
       </c>
-      <c r="K84" s="24">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L84" s="25">
+      <c r="J84" s="25">
         <v>0.69849812984466553</v>
       </c>
-      <c r="M84" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="22" t="s">
         <v>260</v>
       </c>
@@ -8712,24 +8207,13 @@
         <v>1.174914E-3</v>
       </c>
       <c r="I85" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J85" s="24">
         <v>0.65820100000000004</v>
       </c>
-      <c r="K85" s="24">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L85" s="25">
+      <c r="J85" s="25">
         <v>0.46709522604942322</v>
       </c>
-      <c r="M85" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>264</v>
       </c>
@@ -8755,24 +8239,13 @@
         <v>1.24E-3</v>
       </c>
       <c r="I86" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J86" s="7">
         <v>0.10478609</v>
       </c>
-      <c r="K86" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L86">
+      <c r="J86">
         <v>0.3031781017780304</v>
       </c>
-      <c r="M86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>268</v>
       </c>
@@ -8798,24 +8271,13 @@
         <v>1.8600000000000001E-3</v>
       </c>
       <c r="I87" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J87" s="7">
         <v>0.17019250999999999</v>
       </c>
-      <c r="K87" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L87">
+      <c r="J87">
         <v>0.34703588485717768</v>
       </c>
-      <c r="M87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>272</v>
       </c>
@@ -8841,24 +8303,13 @@
         <v>2.3201469999999998E-3</v>
       </c>
       <c r="I88" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J88" s="7">
         <v>7.8209829999999994E-2</v>
       </c>
-      <c r="K88" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L88">
+      <c r="J88">
         <v>0.2086130082607269</v>
       </c>
-      <c r="M88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>276</v>
       </c>
@@ -8884,24 +8335,13 @@
         <v>2.71864E-3</v>
       </c>
       <c r="I89" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J89" s="7">
         <v>3.1731214000000001E-2</v>
       </c>
-      <c r="K89" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L89">
+      <c r="J89">
         <v>0.16350369155406949</v>
       </c>
-      <c r="M89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>67</v>
       </c>
@@ -8927,24 +8367,13 @@
         <v>4.4748740000000002E-3</v>
       </c>
       <c r="I90" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J90" s="7">
         <v>4.6773132000000002E-2</v>
       </c>
-      <c r="K90" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L90">
+      <c r="J90">
         <v>7.4853740632534027E-2</v>
       </c>
-      <c r="M90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>282</v>
       </c>
@@ -8970,24 +8399,13 @@
         <v>5.0299999999999997E-3</v>
       </c>
       <c r="I91" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J91" s="7">
         <v>0.11805267</v>
       </c>
-      <c r="K91" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L91">
+      <c r="J91">
         <v>0.69009113311767578</v>
       </c>
-      <c r="M91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>285</v>
       </c>
@@ -9013,24 +8431,13 @@
         <v>7.2300000000000003E-3</v>
       </c>
       <c r="I92" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="7">
         <v>0.18452199999999999</v>
       </c>
-      <c r="K92" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L92">
+      <c r="J92">
         <v>0.41472551226615911</v>
       </c>
-      <c r="M92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>289</v>
       </c>
@@ -9056,24 +8463,13 @@
         <v>7.3990949999999996E-3</v>
       </c>
       <c r="I93" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J93" s="7">
         <v>0.10673483</v>
       </c>
-      <c r="K93" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L93">
+      <c r="J93">
         <v>7.0615388453006744E-2</v>
       </c>
-      <c r="M93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>293</v>
       </c>
@@ -9099,24 +8495,13 @@
         <v>9.1232410000000007E-3</v>
       </c>
       <c r="I94" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J94" s="7">
         <v>0.15012829999999999</v>
       </c>
-      <c r="K94" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L94">
+      <c r="J94">
         <v>0.36330726742744451</v>
       </c>
-      <c r="M94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>297</v>
       </c>
@@ -9142,24 +8527,13 @@
         <v>1.0802301E-2</v>
       </c>
       <c r="I95" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J95" s="7">
         <v>0.10678828999999999</v>
       </c>
-      <c r="K95" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L95">
+      <c r="J95">
         <v>0.1105808690190315</v>
       </c>
-      <c r="M95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>233</v>
       </c>
@@ -9185,24 +8559,13 @@
         <v>1.9261596999999998E-2</v>
       </c>
       <c r="I96" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="7">
         <v>2.6089706000000001E-2</v>
       </c>
-      <c r="K96" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L96">
+      <c r="J96">
         <v>0.14884465932846069</v>
       </c>
-      <c r="M96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="22" t="s">
         <v>302</v>
       </c>
@@ -9228,24 +8591,13 @@
         <v>2.5512917E-2</v>
       </c>
       <c r="I97" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J97" s="24">
         <v>0.48681518000000001</v>
       </c>
-      <c r="K97" s="24">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L97" s="25">
+      <c r="J97" s="25">
         <v>7.369501143693924E-2</v>
       </c>
-      <c r="M97" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>306</v>
       </c>
@@ -9271,24 +8623,13 @@
         <v>4.4295236000000002E-2</v>
       </c>
       <c r="I98" s="7">
-        <f t="shared" ref="I98:I129" si="5">IF(H98&gt;0.46,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J98" s="7">
         <v>2.9201468000000001E-2</v>
       </c>
-      <c r="K98" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L98">
+      <c r="J98">
         <v>0.1619729548692703</v>
       </c>
-      <c r="M98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>256</v>
       </c>
@@ -9314,24 +8655,13 @@
         <v>5.0187420000000003E-2</v>
       </c>
       <c r="I99" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J99" s="7">
         <v>0.11615468</v>
       </c>
-      <c r="K99" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L99">
+      <c r="J99">
         <v>8.2666784524917603E-2</v>
       </c>
-      <c r="M99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>312</v>
       </c>
@@ -9357,24 +8687,13 @@
         <v>5.0802644000000001E-2</v>
       </c>
       <c r="I100" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J100" s="7">
         <v>5.9965310000000001E-2</v>
       </c>
-      <c r="K100" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L100">
+      <c r="J100">
         <v>0.17874589562416079</v>
       </c>
-      <c r="M100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>316</v>
       </c>
@@ -9400,24 +8719,13 @@
         <v>6.1050611999999997E-2</v>
       </c>
       <c r="I101" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J101" s="7">
         <v>8.9023950000000004E-2</v>
       </c>
-      <c r="K101" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L101">
+      <c r="J101">
         <v>0.19978721439838409</v>
       </c>
-      <c r="M101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>320</v>
       </c>
@@ -9443,24 +8751,13 @@
         <v>9.0036720000000001E-2</v>
       </c>
       <c r="I102" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J102" s="7">
         <v>2.7391654000000001E-2</v>
       </c>
-      <c r="K102" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L102">
+      <c r="J102">
         <v>0.1417442858219147</v>
       </c>
-      <c r="M102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>324</v>
       </c>
@@ -9486,24 +8783,13 @@
         <v>0.13047302999999999</v>
       </c>
       <c r="I103" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J103" s="7">
         <v>6.2344222999999997E-2</v>
       </c>
-      <c r="K103" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L103">
+      <c r="J103">
         <v>0.37738746404647833</v>
       </c>
-      <c r="M103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>327</v>
       </c>
@@ -9529,24 +8815,13 @@
         <v>0.36457917000000001</v>
       </c>
       <c r="I104" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J104" s="7">
         <v>0.13139275</v>
       </c>
-      <c r="K104" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L104">
+      <c r="J104">
         <v>0.19781149923801419</v>
       </c>
-      <c r="M104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="22" t="s">
         <v>331</v>
       </c>
@@ -9572,24 +8847,13 @@
         <v>0.44258046000000001</v>
       </c>
       <c r="I105" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J105" s="24">
         <v>0.25571709999999997</v>
       </c>
-      <c r="K105" s="24">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L105" s="25">
+      <c r="J105" s="25">
         <v>9.7113467752933502E-2</v>
       </c>
-      <c r="M105" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>335</v>
       </c>
@@ -9615,24 +8879,13 @@
         <v>0.45531195000000002</v>
       </c>
       <c r="I106" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J106" s="7">
         <v>7.9979610000000007E-2</v>
       </c>
-      <c r="K106" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L106">
+      <c r="J106">
         <v>0.1647668182849884</v>
       </c>
-      <c r="M106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="22" t="s">
         <v>339</v>
       </c>
@@ -9658,24 +8911,13 @@
         <v>0.45573676000000002</v>
       </c>
       <c r="I107" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J107" s="24">
         <v>0.88876359999999999</v>
       </c>
-      <c r="K107" s="24">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L107" s="25">
+      <c r="J107" s="25">
         <v>0.63613808155059814</v>
       </c>
-      <c r="M107" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="21" t="s">
         <v>342</v>
       </c>
@@ -9701,24 +8943,13 @@
         <v>0.54152370000000005</v>
       </c>
       <c r="I108" s="18">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J108" s="18">
         <v>6.9948079999999996E-2</v>
       </c>
-      <c r="K108" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L108" s="19">
+      <c r="J108" s="19">
         <v>0.1515403687953949</v>
       </c>
-      <c r="M108" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="21" t="s">
         <v>345</v>
       </c>
@@ -9744,24 +8975,13 @@
         <v>0.70883006000000004</v>
       </c>
       <c r="I109" s="18">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J109" s="18">
         <v>0.17488061999999999</v>
       </c>
-      <c r="K109" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L109" s="19">
+      <c r="J109" s="19">
         <v>0.10266049206256871</v>
       </c>
-      <c r="M109" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="21" t="s">
         <v>348</v>
       </c>
@@ -9787,24 +9007,13 @@
         <v>0.78357153999999996</v>
       </c>
       <c r="I110" s="18">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J110" s="18">
         <v>0.14456768</v>
       </c>
-      <c r="K110" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L110" s="19">
+      <c r="J110" s="19">
         <v>0.32946759462356567</v>
       </c>
-      <c r="M110" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="21" t="s">
         <v>352</v>
       </c>
@@ -9830,24 +9039,13 @@
         <v>0.92507379999999995</v>
       </c>
       <c r="I111" s="18">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J111" s="18">
         <v>0.103072725</v>
       </c>
-      <c r="K111" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L111" s="19">
+      <c r="J111" s="19">
         <v>0.10807780921459199</v>
       </c>
-      <c r="M111" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="21" t="s">
         <v>356</v>
       </c>
@@ -9873,24 +9071,13 @@
         <v>0.95399999999999996</v>
       </c>
       <c r="I112" s="18">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J112" s="18">
         <v>0.13260588000000001</v>
       </c>
-      <c r="K112" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L112" s="19">
+      <c r="J112" s="19">
         <v>5.9374634176492691E-2</v>
       </c>
-      <c r="M112" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="21" t="s">
         <v>360</v>
       </c>
@@ -9916,24 +9103,13 @@
         <v>0.96429169999999997</v>
       </c>
       <c r="I113" s="18">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J113" s="18">
         <v>0.13077594000000001</v>
       </c>
-      <c r="K113" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L113" s="19">
+      <c r="J113" s="19">
         <v>7.3621094226837158E-2</v>
       </c>
-      <c r="M113" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="21" t="s">
         <v>364</v>
       </c>
@@ -9959,24 +9135,13 @@
         <v>0.99999950000000004</v>
       </c>
       <c r="I114" s="18">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J114" s="18">
         <v>5.7622958000000002E-2</v>
       </c>
-      <c r="K114" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L114" s="19">
+      <c r="J114" s="19">
         <v>0.29224264621734619</v>
       </c>
-      <c r="M114" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="21" t="s">
         <v>368</v>
       </c>
@@ -10002,24 +9167,13 @@
         <v>0.99999976000000002</v>
       </c>
       <c r="I115" s="18">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J115" s="18">
         <v>0.12723382999999999</v>
       </c>
-      <c r="K115" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L115" s="19">
+      <c r="J115" s="19">
         <v>0.18422394990921021</v>
       </c>
-      <c r="M115" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="21" t="s">
         <v>107</v>
       </c>
@@ -10045,21 +9199,10 @@
         <v>374</v>
       </c>
       <c r="I116" s="18">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J116" s="18">
         <v>0.1123564</v>
       </c>
-      <c r="K116" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L116" s="19">
+      <c r="J116" s="19">
         <v>0.18228551745414731</v>
-      </c>
-      <c r="M116" s="19">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10074,7 +9217,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -11324,4 +10467,1598 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A258D632-E10A-4FD0-9D83-4D5518CFCA72}">
+  <dimension ref="A1:G109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.86328125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="9.06640625" style="37"/>
+    <col min="3" max="3" width="9.06640625" style="31"/>
+    <col min="4" max="7" width="9.06640625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>496</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="D2" s="32">
+        <v>0.9879</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="D3" s="32">
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="D4" s="32">
+        <v>0.69920000000000004</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="D5" s="32">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="D6" s="32">
+        <v>0.51449999999999996</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="D7" s="32">
+        <v>0.33310000000000001</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0.94169999999999998</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="D9" s="32">
+        <v>0.88519999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="D10" s="32">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="9">
+        <v>1</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="D11" s="32">
+        <v>0.9859</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="D12" s="32">
+        <v>0.62450000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="D13" s="32">
+        <v>0.1542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="D14" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="D15" s="32">
+        <v>0.99409999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>405</v>
+      </c>
+      <c r="D16" s="32">
+        <v>0.99280000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="D17" s="32">
+        <v>0.99260000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="9">
+        <v>1</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="D18" s="32">
+        <v>0.99780000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="9">
+        <v>1</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="D19" s="32">
+        <v>0.99939999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="9">
+        <v>1</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="D20" s="32">
+        <v>0.99260000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="9">
+        <v>1</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="D21" s="32">
+        <v>0.21790000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="9">
+        <v>1</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="D22" s="32">
+        <v>0.1469</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="9">
+        <v>1</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="D23" s="32">
+        <v>0.1469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="9">
+        <v>1</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="D24" s="32">
+        <v>0.95889999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="9">
+        <v>1</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="D25" s="32">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="9">
+        <v>1</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="D26" s="32">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="9">
+        <v>1</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="D27" s="32">
+        <v>0.98219999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="9">
+        <v>1</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="D28" s="32">
+        <v>0.9819</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="9">
+        <v>1</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="D29" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="9">
+        <v>1</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="D30" s="32">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="9">
+        <v>1</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="D31" s="32">
+        <v>0.99609999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="9">
+        <v>1</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="D32" s="32">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="9">
+        <v>1</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>421</v>
+      </c>
+      <c r="D33" s="32">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="9">
+        <v>1</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>422</v>
+      </c>
+      <c r="D34" s="32">
+        <v>0.99829999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="9">
+        <v>1</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="D35" s="32">
+        <v>0.99229999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="9">
+        <v>1</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="D36" s="32">
+        <v>0.99870000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" s="9">
+        <v>1</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="D37" s="32">
+        <v>0.99129999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="9">
+        <v>1</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="D38" s="32">
+        <v>0.69689999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" s="9">
+        <v>1</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="D39" s="32">
+        <v>0.95989999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40" s="9">
+        <v>1</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="D40" s="32">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="9">
+        <v>1</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>429</v>
+      </c>
+      <c r="D41" s="32">
+        <v>0.99890000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B42" s="9">
+        <v>1</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>430</v>
+      </c>
+      <c r="D42" s="32">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" s="9">
+        <v>1</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="D43" s="32">
+        <v>0.98570000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" s="9">
+        <v>1</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>432</v>
+      </c>
+      <c r="D44" s="32">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="9">
+        <v>1</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>429</v>
+      </c>
+      <c r="D45" s="32">
+        <v>0.99890000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" s="9">
+        <v>1</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="D46" s="32">
+        <v>0.99880000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B47" s="9">
+        <v>1</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="D47" s="32">
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="9">
+        <v>1</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="D48" s="32">
+        <v>0.5897</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" s="9">
+        <v>1</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="D49" s="32">
+        <v>0.98129999999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" s="9">
+        <v>1</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="D50" s="32">
+        <v>0.96120000000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="9">
+        <v>1</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="D51" s="32">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" s="9">
+        <v>1</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="D52" s="32">
+        <v>0.89759999999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" s="9">
+        <v>1</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="D53" s="32">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="B54" s="9">
+        <v>1</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>441</v>
+      </c>
+      <c r="D54" s="32">
+        <v>0.99819999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" s="9">
+        <v>1</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>442</v>
+      </c>
+      <c r="D55" s="32">
+        <v>0.99070000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B56" s="9">
+        <v>0</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="D56" s="32">
+        <v>0.99639999999999995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="B57" s="9">
+        <v>0</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>444</v>
+      </c>
+      <c r="D57" s="32">
+        <v>0.99839999999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="B58" s="9">
+        <v>0</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="D58" s="32">
+        <v>0.99399999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="B59" s="9">
+        <v>0</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="D59" s="32">
+        <v>0.89059999999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="B60" s="9">
+        <v>0</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="D60" s="32">
+        <v>0.99760000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="B61" s="9">
+        <v>0</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="D61" s="32">
+        <v>0.92879999999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="B62" s="9">
+        <v>0</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="D62" s="32">
+        <v>0.51890000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="B63" s="9">
+        <v>0</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="D63" s="32">
+        <v>0.15939999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="B64" s="9">
+        <v>0</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="D64" s="32">
+        <v>0.78869999999999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="B65" s="9">
+        <v>0</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>452</v>
+      </c>
+      <c r="D65" s="32">
+        <v>9.1300000000000006E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="B66" s="9">
+        <v>0</v>
+      </c>
+      <c r="C66" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="D66" s="36">
+        <v>0.40450000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" s="9">
+        <v>0</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="D67" s="32">
+        <v>0.10580000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="B68" s="9">
+        <v>0</v>
+      </c>
+      <c r="C68" s="31" t="s">
+        <v>455</v>
+      </c>
+      <c r="D68" s="32">
+        <v>0.82140000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B69" s="9">
+        <v>0</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>456</v>
+      </c>
+      <c r="D69" s="32">
+        <v>0.28210000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="B70" s="9">
+        <v>0</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="D70" s="32">
+        <v>0.14749999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="B71" s="9">
+        <v>0</v>
+      </c>
+      <c r="C71" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="D71" s="32">
+        <v>0.1046</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="B72" s="9">
+        <v>0</v>
+      </c>
+      <c r="C72" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="D72" s="32">
+        <v>0.76100000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="B73" s="9">
+        <v>0</v>
+      </c>
+      <c r="C73" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="D73" s="32">
+        <v>8.1900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="B74" s="9">
+        <v>0</v>
+      </c>
+      <c r="C74" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="D74" s="32">
+        <v>0.11550000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="B75" s="9">
+        <v>0</v>
+      </c>
+      <c r="C75" s="31" t="s">
+        <v>462</v>
+      </c>
+      <c r="D75" s="32">
+        <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="B76" s="9">
+        <v>0</v>
+      </c>
+      <c r="C76" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="D76" s="32">
+        <v>8.0699999999999994E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="B77" s="9">
+        <v>0</v>
+      </c>
+      <c r="C77" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="D77" s="32">
+        <v>0.51700000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="B78" s="9">
+        <v>0</v>
+      </c>
+      <c r="C78" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="D78" s="32">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="B79" s="9">
+        <v>0</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="D79" s="32">
+        <v>0.85770000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="B80" s="9">
+        <v>0</v>
+      </c>
+      <c r="C80" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="D80" s="32">
+        <v>0.80430000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="B81" s="9">
+        <v>0</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>468</v>
+      </c>
+      <c r="D81" s="32">
+        <v>0.19309999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="B82" s="9">
+        <v>0</v>
+      </c>
+      <c r="C82" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="D82" s="32">
+        <v>0.18870000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="B83" s="9">
+        <v>0</v>
+      </c>
+      <c r="C83" s="31" t="s">
+        <v>470</v>
+      </c>
+      <c r="D83" s="32">
+        <v>8.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B84" s="9">
+        <v>0</v>
+      </c>
+      <c r="C84" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="D84" s="32">
+        <v>0.72489999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="B85" s="9">
+        <v>0</v>
+      </c>
+      <c r="C85" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="D85" s="32">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="B86" s="9">
+        <v>0</v>
+      </c>
+      <c r="C86" s="31" t="s">
+        <v>473</v>
+      </c>
+      <c r="D86" s="32">
+        <v>0.2203</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="B87" s="9">
+        <v>0</v>
+      </c>
+      <c r="C87" s="31" t="s">
+        <v>474</v>
+      </c>
+      <c r="D87" s="32">
+        <v>0.13220000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="B88" s="9">
+        <v>0</v>
+      </c>
+      <c r="C88" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="D88" s="32">
+        <v>6.88E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="B89" s="9">
+        <v>0</v>
+      </c>
+      <c r="C89" s="31" t="s">
+        <v>476</v>
+      </c>
+      <c r="D89" s="32">
+        <v>0.1336</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="B90" s="9">
+        <v>0</v>
+      </c>
+      <c r="C90" s="36" t="s">
+        <v>460</v>
+      </c>
+      <c r="D90" s="36">
+        <v>8.1900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="B91" s="9">
+        <v>0</v>
+      </c>
+      <c r="C91" s="31" t="s">
+        <v>477</v>
+      </c>
+      <c r="D91" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="B92" s="9">
+        <v>0</v>
+      </c>
+      <c r="C92" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="D92" s="32">
+        <v>0.1186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="B93" s="9">
+        <v>0</v>
+      </c>
+      <c r="C93" s="31" t="s">
+        <v>479</v>
+      </c>
+      <c r="D93" s="32">
+        <v>0.41370000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="B94" s="9">
+        <v>0</v>
+      </c>
+      <c r="C94" s="31" t="s">
+        <v>480</v>
+      </c>
+      <c r="D94" s="32">
+        <v>0.1007</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="B95" s="9">
+        <v>0</v>
+      </c>
+      <c r="C95" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="D95" s="32">
+        <v>0.42070000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B96" s="9">
+        <v>0</v>
+      </c>
+      <c r="C96" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="D96" s="32">
+        <v>0.17150000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="B97" s="9">
+        <v>0</v>
+      </c>
+      <c r="C97" s="31" t="s">
+        <v>483</v>
+      </c>
+      <c r="D97" s="32">
+        <v>0.77569999999999995</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="B98" s="9">
+        <v>0</v>
+      </c>
+      <c r="C98" s="31" t="s">
+        <v>484</v>
+      </c>
+      <c r="D98" s="32">
+        <v>0.1091</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="B99" s="9">
+        <v>0</v>
+      </c>
+      <c r="C99" s="31" t="s">
+        <v>485</v>
+      </c>
+      <c r="D99" s="32">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="B100" s="9">
+        <v>0</v>
+      </c>
+      <c r="C100" s="31" t="s">
+        <v>486</v>
+      </c>
+      <c r="D100" s="32">
+        <v>0.99509999999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="B101" s="9">
+        <v>0</v>
+      </c>
+      <c r="C101" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="D101" s="32">
+        <v>0.15629999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="B102" s="9">
+        <v>0</v>
+      </c>
+      <c r="C102" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="D102" s="32">
+        <v>0.13650000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="B103" s="9">
+        <v>0</v>
+      </c>
+      <c r="C103" s="31" t="s">
+        <v>489</v>
+      </c>
+      <c r="D103" s="32">
+        <v>0.98219999999999996</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="B104" s="9">
+        <v>0</v>
+      </c>
+      <c r="C104" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="D104" s="32">
+        <v>0.35649999999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="B105" s="9">
+        <v>0</v>
+      </c>
+      <c r="C105" s="31" t="s">
+        <v>491</v>
+      </c>
+      <c r="D105" s="32">
+        <v>5.0799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="B106" s="9">
+        <v>0</v>
+      </c>
+      <c r="C106" s="31" t="s">
+        <v>492</v>
+      </c>
+      <c r="D106" s="32">
+        <v>9.8299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="B107" s="9">
+        <v>0</v>
+      </c>
+      <c r="C107" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="D107" s="32">
+        <v>0.4446</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="B108" s="9">
+        <v>0</v>
+      </c>
+      <c r="C108" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="D108" s="32">
+        <v>0.97650000000000003</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109" s="9">
+        <v>0</v>
+      </c>
+      <c r="C109" s="36" t="s">
+        <v>495</v>
+      </c>
+      <c r="D109" s="36">
+        <v>0.38419999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>